--- a/output/1Y_P54_1VAL-D.xlsx
+++ b/output/1Y_P54_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>14.3227</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>698.1924</v>
       </c>
-      <c r="G2" s="1">
-        <v>698.1924</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.124299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.3227</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>2</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.124299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>15.7433</v>
       </c>
+      <c r="E3" s="1">
+        <v>698.1924</v>
+      </c>
       <c r="F3" s="1">
         <v>635.1908</v>
       </c>
-      <c r="G3" s="1">
-        <v>1333.3832</v>
-      </c>
       <c r="H3" s="1">
-        <v>20883.048</v>
+        <v>10934.8796</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.9994</v>
+        <v>10934.8796</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.3227</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20883.048</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0469</v>
+        <v>0.0935</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>16.1934</v>
       </c>
+      <c r="E4" s="1">
+        <v>1333.3832</v>
+      </c>
       <c r="F4" s="1">
         <v>617.5355</v>
       </c>
-      <c r="G4" s="1">
-        <v>1950.9188</v>
-      </c>
       <c r="H4" s="1">
-        <v>31428.1307</v>
+        <v>21480.0037</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.3774</v>
+        <v>21480.0037</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.9994</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31428.1307</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0176</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>15.2218</v>
       </c>
+      <c r="E5" s="1">
+        <v>1950.9188</v>
+      </c>
       <c r="F5" s="1">
         <v>656.9525</v>
       </c>
-      <c r="G5" s="1">
-        <v>2607.8713</v>
-      </c>
       <c r="H5" s="1">
-        <v>39490.7342</v>
+        <v>29542.5677</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.3382</v>
+        <v>29542.5677</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.3774</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39490.7342</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0468</v>
+        <v>-0.0615</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>14.0702</v>
       </c>
+      <c r="E6" s="1">
+        <v>2607.8713</v>
+      </c>
       <c r="F6" s="1">
         <v>710.722</v>
       </c>
-      <c r="G6" s="1">
-        <v>3318.5932</v>
-      </c>
       <c r="H6" s="1">
-        <v>46451.3452</v>
+        <v>36503.1568</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.0666</v>
+        <v>36503.1568</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.3382</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>46451.3452</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0614</v>
+        <v>-0.0769</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>13.8476</v>
       </c>
+      <c r="E7" s="1">
+        <v>3318.5932</v>
+      </c>
       <c r="F7" s="1">
         <v>722.1468</v>
       </c>
-      <c r="G7" s="1">
-        <v>4040.74</v>
-      </c>
       <c r="H7" s="1">
-        <v>55664.4266</v>
+        <v>45716.2768</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>14.8488</v>
+        <v>45716.2768</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.0666</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>55664.4266</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0139</v>
+        <v>-0.0169</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>14.6185</v>
       </c>
+      <c r="E8" s="1">
+        <v>4040.74</v>
+      </c>
       <c r="F8" s="1">
         <v>684.0647</v>
       </c>
-      <c r="G8" s="1">
-        <v>4724.8048</v>
-      </c>
       <c r="H8" s="1">
-        <v>68711.4181</v>
+        <v>58763.2702</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>14.8154</v>
+        <v>58763.2702</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.8488</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>68711.4181</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0464</v>
+        <v>0.0547</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>15.2363</v>
       </c>
+      <c r="E9" s="1">
+        <v>4724.8048</v>
+      </c>
       <c r="F9" s="1">
         <v>656.3273</v>
       </c>
-      <c r="G9" s="1">
-        <v>5381.1321</v>
-      </c>
       <c r="H9" s="1">
-        <v>81563.4332</v>
+        <v>71615.2831</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>14.8668</v>
+        <v>71615.2831</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.8154</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81563.4332</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0362</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>15.9097</v>
       </c>
+      <c r="E10" s="1">
+        <v>5381.1321</v>
+      </c>
       <c r="F10" s="1">
         <v>628.5474</v>
       </c>
-      <c r="G10" s="1">
-        <v>6009.6794</v>
-      </c>
       <c r="H10" s="1">
-        <v>95116.39840000001</v>
+        <v>85168.2536</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>14.9758</v>
+        <v>85168.2536</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.8668</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>95116.39840000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0388</v>
+        <v>0.0435</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>15.3909</v>
       </c>
+      <c r="E11" s="1">
+        <v>6009.6794</v>
+      </c>
       <c r="F11" s="1">
         <v>649.7346</v>
       </c>
-      <c r="G11" s="1">
-        <v>6659.414</v>
-      </c>
       <c r="H11" s="1">
-        <v>101962.9541</v>
+        <v>92014.8029</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.0163</v>
+        <v>92014.8029</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.9758</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>101962.9541</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.03</v>
+        <v>-0.0331</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>16.1095</v>
       </c>
+      <c r="E12" s="1">
+        <v>6659.414</v>
+      </c>
       <c r="F12" s="1">
         <v>620.7517</v>
       </c>
-      <c r="G12" s="1">
-        <v>7280.1658</v>
-      </c>
       <c r="H12" s="1">
-        <v>116671.9364</v>
+        <v>106723.7691</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.1095</v>
+        <v>106723.7691</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.0163</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116671.9364</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0421</v>
+        <v>0.0462</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>16.1222</v>
       </c>
+      <c r="E13" s="1">
+        <v>7280.1658</v>
+      </c>
       <c r="F13" s="1">
         <v>620.2627</v>
       </c>
-      <c r="G13" s="1">
-        <v>7900.4285</v>
-      </c>
       <c r="H13" s="1">
-        <v>126711.8125</v>
+        <v>116763.6665</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>15.189</v>
+        <v>116763.6665</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>15.1095</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.2</v>
       </c>
-      <c r="L13" s="1">
-        <v>1310.4298</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-8689.5702</v>
+        <v>1198.6945</v>
       </c>
       <c r="O13" s="1">
-        <v>1310.4298</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>128022.2423</v>
+        <v>-8801.3055</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0107</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.3453</v>
       </c>
+      <c r="E14" s="1">
+        <v>7900.4285</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7900.4285</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-7280.1658</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>136324.2639</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>1198.6945</v>
       </c>
       <c r="J14" s="1">
-        <v>15.189</v>
+        <v>137522.9584</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.9233</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>136324.2639</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>137634.6937</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>137634.6937</v>
+        <v>125621.4441</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0028</v>
+        <v>0.0849</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>14.3227</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>698.1924</v>
       </c>
       <c r="G2" s="1">
-        <v>698.1924</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.124299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.3227</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>2</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.124299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>15.7433</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>698.1924</v>
       </c>
       <c r="F3" s="1">
         <v>578.8082000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1277.0006</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10934.8796</v>
       </c>
       <c r="I3" s="1">
-        <v>19112.3512</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.9666</v>
+        <v>10934.8796</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9112.351199999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.0513</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9112.351199999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>887.6488000000001</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20887.6488</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0471</v>
+        <v>0.0935</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>16.1934</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1277.0006</v>
       </c>
       <c r="F4" s="1">
         <v>585.2662</v>
       </c>
       <c r="G4" s="1">
-        <v>1862.2668</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20571.7132</v>
       </c>
       <c r="I4" s="1">
-        <v>28589.8004</v>
+        <v>887.6488000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>15.3522</v>
+        <v>21459.362</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18589.8004</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.5574</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9477.449199999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>1410.1996</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31410.1996</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0169</v>
+        <v>0.0251</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>15.2218</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1862.2668</v>
       </c>
       <c r="F5" s="1">
         <v>749.596</v>
       </c>
       <c r="G5" s="1">
-        <v>2611.8627</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>39551.1757</v>
+        <v>28200.1192</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>1410.1996</v>
       </c>
       <c r="J5" s="1">
-        <v>15.3147</v>
+        <v>29610.3188</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.1094</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-11410.1996</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39551.1757</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0449</v>
+        <v>-0.0588</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>14.0702</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2611.8627</v>
       </c>
       <c r="F6" s="1">
         <v>710.722</v>
       </c>
       <c r="G6" s="1">
-        <v>3322.5847</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>46507.2142</v>
+        <v>36559.0258</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.0485</v>
+        <v>36559.0258</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.3147</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>46507.2142</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0614</v>
+        <v>-0.077</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>13.8476</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3322.5847</v>
       </c>
       <c r="F7" s="1">
         <v>722.1468</v>
       </c>
       <c r="G7" s="1">
-        <v>4044.7315</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>55719.4115</v>
+        <v>45771.2617</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>14.8341</v>
+        <v>45771.2617</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.0485</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>55719.4115</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0139</v>
+        <v>-0.0169</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>14.6185</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>4044.7315</v>
       </c>
       <c r="F8" s="1">
         <v>684.0647</v>
       </c>
       <c r="G8" s="1">
-        <v>4728.7962</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>68769.46400000001</v>
+        <v>58821.3161</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>14.8029</v>
+        <v>58821.3161</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.8341</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>68769.46400000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0464</v>
+        <v>0.0547</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>15.2363</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4728.7962</v>
       </c>
       <c r="F9" s="1">
         <v>549.1887</v>
       </c>
       <c r="G9" s="1">
-        <v>5277.9849</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>71675.7821</v>
       </c>
       <c r="I9" s="1">
-        <v>78367.6038</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>14.848</v>
+        <v>71675.7821</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68367.6038</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.4577</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8367.603800000001</v>
       </c>
-      <c r="O9" s="1">
-        <v>1632.3962</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81632.3962</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0363</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>15.9097</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5277.9849</v>
       </c>
       <c r="F10" s="1">
         <v>408.4284</v>
       </c>
       <c r="G10" s="1">
-        <v>5686.4133</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>83535.7221</v>
       </c>
       <c r="I10" s="1">
-        <v>84865.57709999999</v>
+        <v>1632.3962</v>
       </c>
       <c r="J10" s="1">
-        <v>14.9243</v>
+        <v>85168.1183</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>74865.57709999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.1845</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-6497.9733</v>
       </c>
-      <c r="O10" s="1">
-        <v>5134.4229</v>
-      </c>
-      <c r="P10" s="1">
-        <v>95134.42290000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0382</v>
+        <v>0.0428</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>15.3909</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5686.4133</v>
       </c>
       <c r="F11" s="1">
         <v>844.7961</v>
       </c>
       <c r="G11" s="1">
-        <v>6531.2094</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>87065.2421</v>
       </c>
       <c r="I11" s="1">
-        <v>97867.7497</v>
+        <v>5134.4229</v>
       </c>
       <c r="J11" s="1">
-        <v>14.9846</v>
+        <v>92199.66499999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>87867.7497</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.4522</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-13002.1726</v>
       </c>
-      <c r="O11" s="1">
-        <v>2132.2503</v>
-      </c>
-      <c r="P11" s="1">
-        <v>102132.2503</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0286</v>
+        <v>-0.0312</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>16.1095</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>6531.2094</v>
       </c>
       <c r="F12" s="1">
         <v>332.6369</v>
       </c>
       <c r="G12" s="1">
-        <v>6863.8462</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>104669.1616</v>
       </c>
       <c r="I12" s="1">
-        <v>103226.3633</v>
+        <v>2132.2503</v>
       </c>
       <c r="J12" s="1">
-        <v>15.0391</v>
+        <v>106801.4119</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>93226.3633</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.274</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-5358.6136</v>
       </c>
-      <c r="O12" s="1">
-        <v>6773.6367</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116773.6367</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0414</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>16.1222</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6863.8462</v>
       </c>
       <c r="F13" s="1">
         <v>618.1035000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>7481.9498</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>110086.4845</v>
       </c>
       <c r="I13" s="1">
-        <v>113191.5523</v>
+        <v>6773.6367</v>
       </c>
       <c r="J13" s="1">
-        <v>15.1286</v>
+        <v>116860.1212</v>
       </c>
       <c r="K13" s="1">
+        <v>103191.5523</v>
+      </c>
+      <c r="L13" s="1">
+        <v>15.0341</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.2</v>
       </c>
-      <c r="L13" s="1">
-        <v>1235.4923</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-8729.6967</v>
+        <v>1175.6177</v>
       </c>
       <c r="O13" s="1">
-        <v>8043.94</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>128043.94</v>
+        <v>-8789.5713</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.01</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.3453</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7481.9498</v>
       </c>
       <c r="F14" s="1">
         <v>-7481.9498</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>129103.2883</v>
       </c>
       <c r="I14" s="1">
-        <v>113191.5523</v>
+        <v>7984.0654</v>
       </c>
       <c r="J14" s="1">
-        <v>15.1286</v>
+        <v>137087.3537</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>103191.5523</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.7921</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>129103.2883</v>
       </c>
-      <c r="O14" s="1">
-        <v>137147.2284</v>
-      </c>
-      <c r="P14" s="1">
-        <v>137147.2284</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0065</v>
+        <v>0.0806</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>14.3227</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>698.1924</v>
       </c>
       <c r="G2" s="1">
-        <v>698.1924</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.124299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.3227</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>2</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.124299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>15.7433</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>698.1924</v>
       </c>
       <c r="F3" s="1">
         <v>582.0007000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1280.1931</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10934.8796</v>
       </c>
       <c r="I3" s="1">
-        <v>19162.6117</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.9685</v>
+        <v>10934.8796</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9162.611699999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.1233</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9162.611699999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>837.3883</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20887.3883</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0471</v>
+        <v>0.0935</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>16.1934</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1280.1931</v>
       </c>
       <c r="F4" s="1">
         <v>591.4005</v>
       </c>
       <c r="G4" s="1">
-        <v>1871.5936</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20623.1424</v>
       </c>
       <c r="I4" s="1">
-        <v>28739.3969</v>
+        <v>837.3883</v>
       </c>
       <c r="J4" s="1">
-        <v>15.3556</v>
+        <v>21460.5308</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18739.3969</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.6379</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9576.7852</v>
       </c>
-      <c r="O4" s="1">
-        <v>1260.6031</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31410.8531</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0169</v>
+        <v>0.0251</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>15.2218</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1871.5936</v>
       </c>
       <c r="F5" s="1">
         <v>739.7682</v>
       </c>
       <c r="G5" s="1">
-        <v>2611.3618</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>39543.5902</v>
+        <v>28341.3548</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>1260.6031</v>
       </c>
       <c r="J5" s="1">
-        <v>15.3177</v>
+        <v>29601.9579</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.0291</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-11260.6031</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39543.5902</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0451</v>
+        <v>-0.0591</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>14.0702</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2611.3618</v>
       </c>
       <c r="F6" s="1">
         <v>710.722</v>
       </c>
       <c r="G6" s="1">
-        <v>3322.0837</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>46500.2025</v>
+        <v>36552.0142</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.0508</v>
+        <v>36552.0142</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.3177</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>46500.2025</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0614</v>
+        <v>-0.077</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>13.8476</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3322.0837</v>
       </c>
       <c r="F7" s="1">
         <v>722.1468</v>
       </c>
       <c r="G7" s="1">
-        <v>4044.2305</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>55712.5108</v>
+        <v>45764.361</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>14.8359</v>
+        <v>45764.361</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.0508</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>55712.5108</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0139</v>
+        <v>-0.0169</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>14.6185</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>4044.2305</v>
       </c>
       <c r="F8" s="1">
         <v>684.0647</v>
       </c>
       <c r="G8" s="1">
-        <v>4728.2952</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>68762.17909999999</v>
+        <v>58814.0312</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>14.8045</v>
+        <v>58814.0312</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.8359</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>68762.17909999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0464</v>
+        <v>0.0547</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>15.2363</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4728.2952</v>
       </c>
       <c r="F9" s="1">
         <v>642.9838</v>
       </c>
       <c r="G9" s="1">
-        <v>5371.279</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>71668.1894</v>
       </c>
       <c r="I9" s="1">
-        <v>79796.6942</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>14.8562</v>
+        <v>71668.1894</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69796.6942</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.7615</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9796.6942</v>
       </c>
-      <c r="O9" s="1">
-        <v>203.3058</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81617.3937</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0363</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>15.9097</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5371.279</v>
       </c>
       <c r="F10" s="1">
         <v>430.1993</v>
       </c>
       <c r="G10" s="1">
-        <v>5801.4784</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>85012.3077</v>
       </c>
       <c r="I10" s="1">
-        <v>86641.0362</v>
+        <v>203.3058</v>
       </c>
       <c r="J10" s="1">
-        <v>14.9343</v>
+        <v>85215.61350000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>76641.0362</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.2687</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-6844.3421</v>
       </c>
-      <c r="O10" s="1">
-        <v>3358.9638</v>
-      </c>
-      <c r="P10" s="1">
-        <v>95180.12209999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0389</v>
+        <v>0.0434</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>15.3909</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5801.4784</v>
       </c>
       <c r="F11" s="1">
         <v>867.9781</v>
       </c>
       <c r="G11" s="1">
-        <v>6669.4564</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102116.7144</v>
+        <v>88827.0153</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>3358.9638</v>
       </c>
       <c r="J11" s="1">
-        <v>14.9937</v>
+        <v>92185.9791</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.5133</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-13358.9638</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>102116.7144</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0291</v>
+        <v>-0.0318</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>16.1095</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>6669.4564</v>
       </c>
       <c r="F12" s="1">
         <v>368.5858</v>
       </c>
       <c r="G12" s="1">
-        <v>7038.0423</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>106884.7088</v>
       </c>
       <c r="I12" s="1">
-        <v>105937.7335</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.0522</v>
+        <v>106884.7088</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>95937.7335</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.3846</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-5937.7335</v>
       </c>
-      <c r="O12" s="1">
-        <v>4062.2665</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116853.9319</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0423</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>16.1222</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>7038.0423</v>
       </c>
       <c r="F13" s="1">
         <v>653.1292999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>7691.1715</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>112880.3447</v>
       </c>
       <c r="I13" s="1">
-        <v>116467.6141</v>
+        <v>4062.2665</v>
       </c>
       <c r="J13" s="1">
-        <v>15.143</v>
+        <v>116942.6112</v>
       </c>
       <c r="K13" s="1">
+        <v>106467.6141</v>
+      </c>
+      <c r="L13" s="1">
+        <v>15.1274</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.2</v>
       </c>
-      <c r="L13" s="1">
-        <v>1266.8476</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-9263.032999999999</v>
+        <v>1200.5022</v>
       </c>
       <c r="O13" s="1">
-        <v>4799.2335</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>128154.8572</v>
+        <v>-9329.3784</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0103</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>17.3453</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7691.1715</v>
       </c>
       <c r="F14" s="1">
         <v>-7691.1715</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>132713.4721</v>
       </c>
       <c r="I14" s="1">
-        <v>116467.6141</v>
+        <v>4732.8881</v>
       </c>
       <c r="J14" s="1">
-        <v>15.143</v>
+        <v>137446.3602</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>106467.6141</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.8428</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>132713.4721</v>
       </c>
-      <c r="O14" s="1">
-        <v>137512.7056</v>
-      </c>
-      <c r="P14" s="1">
-        <v>137512.7056</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0046</v>
+        <v>0.0827</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>14.3227</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>698.1924</v>
       </c>
       <c r="G2" s="1">
-        <v>698.1924</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.124299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.3227</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>2</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.124299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>15.7433</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>698.1924</v>
       </c>
       <c r="F3" s="1">
         <v>585.1932</v>
       </c>
       <c r="G3" s="1">
-        <v>1283.3856</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10934.8796</v>
       </c>
       <c r="I3" s="1">
-        <v>19212.8722</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.9705</v>
+        <v>10934.8796</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9212.8722</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.1953</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9212.8722</v>
       </c>
-      <c r="O3" s="1">
-        <v>787.1278</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20887.1278</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0471</v>
+        <v>0.0935</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>16.1934</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1283.3856</v>
       </c>
       <c r="F4" s="1">
         <v>597.5659000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1880.9515</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20674.5717</v>
       </c>
       <c r="I4" s="1">
-        <v>28889.496</v>
+        <v>787.1278</v>
       </c>
       <c r="J4" s="1">
-        <v>15.359</v>
+        <v>21461.6996</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18889.496</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.7185</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9676.623799999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>1110.504</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31411.504</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.017</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>15.2218</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1880.9515</v>
       </c>
       <c r="F5" s="1">
         <v>729.9074000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>2610.8589</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>39535.9747</v>
+        <v>28483.0604</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>1110.504</v>
       </c>
       <c r="J5" s="1">
-        <v>15.3206</v>
+        <v>29593.5644</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.9494</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-11110.504</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39535.9747</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0453</v>
+        <v>-0.0594</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>14.0702</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2610.8589</v>
       </c>
       <c r="F6" s="1">
         <v>710.722</v>
       </c>
       <c r="G6" s="1">
-        <v>3321.5808</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>46493.1632</v>
+        <v>36544.9748</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.0531</v>
+        <v>36544.9748</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.3206</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>46493.1632</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0614</v>
+        <v>-0.077</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>13.8476</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3321.5808</v>
       </c>
       <c r="F7" s="1">
         <v>722.1468</v>
       </c>
       <c r="G7" s="1">
-        <v>4043.7276</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>55705.5829</v>
+        <v>45757.433</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>14.8378</v>
+        <v>45757.433</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.0531</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>55705.5829</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0139</v>
+        <v>-0.0169</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>14.6185</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>4043.7276</v>
       </c>
       <c r="F8" s="1">
         <v>684.0647</v>
       </c>
       <c r="G8" s="1">
-        <v>4727.7923</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>68754.8655</v>
+        <v>58806.7176</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>14.8061</v>
+        <v>58806.7176</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.8378</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>68754.8655</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0464</v>
+        <v>0.0547</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>15.2363</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4727.7923</v>
       </c>
       <c r="F9" s="1">
         <v>656.3273</v>
       </c>
       <c r="G9" s="1">
-        <v>5384.1197</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>81608.71679999999</v>
+        <v>71660.56660000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>14.8585</v>
+        <v>71660.56660000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.8061</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81608.71679999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0362</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>15.9097</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5384.1197</v>
       </c>
       <c r="F10" s="1">
         <v>535.1378999999999</v>
       </c>
       <c r="G10" s="1">
-        <v>5919.2575</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>85215.5385</v>
       </c>
       <c r="I10" s="1">
-        <v>88513.883</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>14.9535</v>
+        <v>85215.5385</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>78513.883</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.5825</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-8513.883</v>
       </c>
-      <c r="O10" s="1">
-        <v>1486.117</v>
-      </c>
-      <c r="P10" s="1">
-        <v>95171.3897</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0389</v>
+        <v>0.0435</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>15.3909</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5919.2575</v>
       </c>
       <c r="F11" s="1">
         <v>746.2927</v>
       </c>
       <c r="G11" s="1">
-        <v>6665.5503</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>102056.9067</v>
+        <v>90630.34390000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>1486.117</v>
       </c>
       <c r="J11" s="1">
-        <v>15.0025</v>
+        <v>92116.46090000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.2046</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-11486.117</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>102056.9067</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0296</v>
+        <v>-0.0325</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>16.1095</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6665.5503</v>
       </c>
       <c r="F12" s="1">
         <v>551.9929</v>
       </c>
       <c r="G12" s="1">
-        <v>7217.5432</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>106822.1086</v>
       </c>
       <c r="I12" s="1">
-        <v>108892.3295</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.0872</v>
+        <v>106822.1086</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>98892.32950000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.8363</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-8892.3295</v>
       </c>
-      <c r="O12" s="1">
-        <v>1107.6705</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116776.0172</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0421</v>
+        <v>0.0461</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>16.1222</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>7217.5432</v>
       </c>
       <c r="F13" s="1">
         <v>689.9444</v>
       </c>
       <c r="G13" s="1">
-        <v>7907.4876</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>115759.2877</v>
       </c>
       <c r="I13" s="1">
-        <v>120015.7513</v>
+        <v>1107.6705</v>
       </c>
       <c r="J13" s="1">
-        <v>15.1775</v>
+        <v>116866.9582</v>
       </c>
       <c r="K13" s="1">
+        <v>110015.7513</v>
+      </c>
+      <c r="L13" s="1">
+        <v>15.2428</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.2</v>
       </c>
-      <c r="L13" s="1">
-        <v>1299.1578</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-9824.263999999999</v>
+        <v>1199.799</v>
       </c>
       <c r="O13" s="1">
-        <v>1283.4065</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>128108.4366</v>
+        <v>-9923.6227</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0105</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>17.3453</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7907.4876</v>
       </c>
       <c r="F14" s="1">
         <v>-7907.4876</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>136446.0703</v>
       </c>
       <c r="I14" s="1">
-        <v>120015.7513</v>
+        <v>1184.0478</v>
       </c>
       <c r="J14" s="1">
-        <v>15.1775</v>
+        <v>137630.118</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110015.7513</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.9129</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>136446.0703</v>
       </c>
-      <c r="O14" s="1">
-        <v>137729.4768</v>
-      </c>
-      <c r="P14" s="1">
-        <v>137729.4768</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0027</v>
+        <v>0.0848</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>14.3227</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>698.1924</v>
       </c>
       <c r="G2" s="1">
-        <v>698.1924</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.124299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.3227</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>2</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.124299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>15.7433</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>698.1924</v>
       </c>
       <c r="F3" s="1">
         <v>588.3857</v>
       </c>
       <c r="G3" s="1">
-        <v>1286.5781</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10934.8796</v>
       </c>
       <c r="I3" s="1">
-        <v>19263.1327</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.9724</v>
+        <v>10934.8796</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9263.1327</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.2673</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9263.1327</v>
       </c>
-      <c r="O3" s="1">
-        <v>736.8673</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20886.8673</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0471</v>
+        <v>0.0935</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>16.1934</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1286.5781</v>
       </c>
       <c r="F4" s="1">
         <v>603.7623</v>
       </c>
       <c r="G4" s="1">
-        <v>1890.3404</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20726.001</v>
       </c>
       <c r="I4" s="1">
-        <v>29040.0977</v>
+        <v>736.8673</v>
       </c>
       <c r="J4" s="1">
-        <v>15.3624</v>
+        <v>21462.8683</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19040.0977</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.799</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9776.965</v>
       </c>
-      <c r="O4" s="1">
-        <v>959.9023</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31412.1523</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.017</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>15.2218</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1890.3404</v>
       </c>
       <c r="F5" s="1">
         <v>720.0136</v>
       </c>
       <c r="G5" s="1">
-        <v>2610.354</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>39528.3292</v>
+        <v>28625.236</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>959.9023</v>
       </c>
       <c r="J5" s="1">
-        <v>15.3236</v>
+        <v>29585.1383</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.8702</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10959.9023</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39528.3292</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0455</v>
+        <v>-0.0597</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>14.0702</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2610.354</v>
       </c>
       <c r="F6" s="1">
         <v>710.722</v>
       </c>
       <c r="G6" s="1">
-        <v>3321.0759</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>46486.0961</v>
+        <v>36537.9077</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.0554</v>
+        <v>36537.9077</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.3236</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>46486.0961</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0614</v>
+        <v>-0.077</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>13.8476</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3321.0759</v>
       </c>
       <c r="F7" s="1">
         <v>722.1468</v>
       </c>
       <c r="G7" s="1">
-        <v>4043.2227</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>55698.6276</v>
+        <v>45750.4777</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>14.8396</v>
+        <v>45750.4777</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.0554</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>55698.6276</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0139</v>
+        <v>-0.0169</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>14.6185</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>4043.2227</v>
       </c>
       <c r="F8" s="1">
         <v>684.0647</v>
       </c>
       <c r="G8" s="1">
-        <v>4727.2874</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>68747.523</v>
+        <v>58799.3751</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>14.8076</v>
+        <v>58799.3751</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.8396</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>68747.523</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0464</v>
+        <v>0.0547</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>15.2363</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4727.2874</v>
       </c>
       <c r="F9" s="1">
         <v>656.3273</v>
       </c>
       <c r="G9" s="1">
-        <v>5383.6148</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>81601.064</v>
+        <v>71652.9139</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>14.8599</v>
+        <v>71652.9139</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.8076</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81601.064</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0362</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>15.9097</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5383.6148</v>
       </c>
       <c r="F10" s="1">
         <v>628.5474</v>
       </c>
       <c r="G10" s="1">
-        <v>6012.1621</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95155.6924</v>
+        <v>85207.5475</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>14.9697</v>
+        <v>85207.5475</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.8599</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>95155.6924</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0388</v>
+        <v>0.0435</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>15.3909</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>6012.1621</v>
       </c>
       <c r="F11" s="1">
         <v>649.7346</v>
       </c>
       <c r="G11" s="1">
-        <v>6661.8967</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>102000.9667</v>
+        <v>92052.8155</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.0107</v>
+        <v>92052.8155</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.9697</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>102000.9667</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.03</v>
+        <v>-0.0331</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>16.1095</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6661.8967</v>
       </c>
       <c r="F12" s="1">
         <v>620.7517</v>
       </c>
       <c r="G12" s="1">
-        <v>7282.6484</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>116711.7239</v>
+        <v>106763.5566</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.1044</v>
+        <v>106763.5566</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.0107</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116711.7239</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0421</v>
+        <v>0.0462</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>16.1222</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>7282.6484</v>
       </c>
       <c r="F13" s="1">
         <v>620.2627</v>
       </c>
       <c r="G13" s="1">
-        <v>7902.9112</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>126751.6313</v>
+        <v>116803.4852</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>15.1843</v>
+        <v>116803.4852</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>15.1044</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.2</v>
       </c>
-      <c r="L13" s="1">
-        <v>1310.8767</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-8689.123299999999</v>
+        <v>1199.1414</v>
       </c>
       <c r="O13" s="1">
-        <v>1310.8767</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>128062.508</v>
+        <v>-8800.8586</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0107</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>17.3453</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7902.9112</v>
       </c>
       <c r="F14" s="1">
         <v>-7902.9112</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>136367.1033</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>1199.1414</v>
       </c>
       <c r="J14" s="1">
-        <v>15.1843</v>
+        <v>137566.2447</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.9189</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>136367.1033</v>
       </c>
-      <c r="O14" s="1">
-        <v>137677.98</v>
-      </c>
-      <c r="P14" s="1">
-        <v>137677.98</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0028</v>
+        <v>0.0849</v>
       </c>
     </row>
   </sheetData>
@@ -4480,7 +4453,7 @@
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.2985</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.189</v>
+        <v>13.9233</v>
       </c>
       <c r="D3" s="1">
-        <v>15.1286</v>
+        <v>13.7921</v>
       </c>
       <c r="E3" s="1">
-        <v>15.143</v>
+        <v>13.8428</v>
       </c>
       <c r="F3" s="1">
-        <v>15.1775</v>
+        <v>13.9129</v>
       </c>
       <c r="G3" s="1">
-        <v>15.1843</v>
+        <v>13.9189</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.2092</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0837</v>
+        <v>0.2021</v>
       </c>
       <c r="D4" s="3">
-        <v>0.08110000000000001</v>
+        <v>0.1997</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0839</v>
+        <v>0.2026</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0852</v>
+        <v>0.2038</v>
       </c>
       <c r="G4" s="3">
-        <v>0.08459999999999999</v>
+        <v>0.2031</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1801</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1259</v>
+        <v>0.1818</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1247</v>
+        <v>0.1782</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1251</v>
+        <v>0.1795</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1252</v>
+        <v>0.1807</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1253</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.0487</v>
       </c>
       <c r="C6" s="4">
-        <v>0.504</v>
+        <v>1.0003</v>
       </c>
       <c r="D6" s="4">
-        <v>0.4873</v>
+        <v>1.0065</v>
       </c>
       <c r="E6" s="4">
-        <v>0.5077</v>
+        <v>1.0153</v>
       </c>
       <c r="F6" s="4">
-        <v>0.5183</v>
+        <v>1.0156</v>
       </c>
       <c r="G6" s="4">
-        <v>0.5128</v>
+        <v>1.0098</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2824</v>
+        <v>0.1067</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2834</v>
+        <v>0.2823</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2853</v>
+        <v>0.2842</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2858</v>
+        <v>0.2841</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2839</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>1310.4298</v>
+        <v>1198.6945</v>
       </c>
       <c r="D8" s="1">
-        <v>1235.4923</v>
+        <v>1175.6177</v>
       </c>
       <c r="E8" s="1">
-        <v>1266.8476</v>
+        <v>1200.5022</v>
       </c>
       <c r="F8" s="1">
-        <v>1299.1578</v>
+        <v>1199.799</v>
       </c>
       <c r="G8" s="1">
-        <v>1310.8767</v>
+        <v>1199.1414</v>
       </c>
     </row>
   </sheetData>
